--- a/AAA-Luban-Excel/Datas/TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16095" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,14 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,153 +585,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1058,7 +1048,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1078,10 +1068,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1098,10 +1088,10 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1116,10 +1106,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1136,10 +1126,10 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1159,8 +1149,8 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>99</v>
+      <c r="E5" s="4">
+        <v>999</v>
       </c>
       <c r="F5" s="1">
         <v>1001</v>
@@ -1176,8 +1166,8 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
-        <v>99</v>
+      <c r="E6" s="4">
+        <v>999</v>
       </c>
       <c r="F6" s="1">
         <v>1001</v>
@@ -1193,8 +1183,8 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
-        <v>99</v>
+      <c r="E7" s="4">
+        <v>999</v>
       </c>
       <c r="F7" s="1">
         <v>1001</v>
@@ -1210,8 +1200,8 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
-        <v>21</v>
+      <c r="E8" s="4">
+        <v>999</v>
       </c>
       <c r="F8" s="1">
         <v>1001</v>
@@ -1227,15 +1217,15 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
-        <v>15</v>
+      <c r="E9" s="4">
+        <v>999</v>
       </c>
       <c r="F9" s="1">
         <v>1001</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
